--- a/fix/43-update-profiles-list/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/fix/43-update-profiles-list/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T17:32:42+00:00</t>
+    <t>2025-11-17T08:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fix/43-update-profiles-list/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/fix/43-update-profiles-list/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T08:57:58+00:00</t>
+    <t>2025-11-17T09:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
